--- a/PlanilhasTestes/teste.xlsx
+++ b/PlanilhasTestes/teste.xlsx
@@ -5,22 +5,43 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha de testes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>My first EPPlus spreadsheet!</t>
-  </si>
-  <si>
-    <t>This is cell B1!</t>
-  </si>
-  <si>
-    <t>Voce alterou a planilha hein</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Valor  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor  10</t>
   </si>
 </sst>
 </file>
@@ -66,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -79,13 +100,131 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>2</v>
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:B5"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>